--- a/HW4/TrafAsmtUE_baseline.xlsx
+++ b/HW4/TrafAsmtUE_baseline.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\KS_personal\USP_587\HW4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saavedrak\KS_personal\USP_587\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{C00E4702-A2A2-41A4-8140-FF0F141F878E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="15330"/>
   </bookViews>
   <sheets>
-    <sheet name="TrafAsmtUE_baseline" sheetId="1" r:id="rId1"/>
+    <sheet name="TrafAsmtUE_Baseline" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +384,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,32 +525,31 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -603,7 +595,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -633,7 +636,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -645,7 +648,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -662,9 +665,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -692,31 +695,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -744,23 +730,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -913,29 +882,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -943,17 +908,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -961,7 +926,7 @@
         <v>42840.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -969,7 +934,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -977,7 +942,7 @@
         <v>8.8774600000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -997,7 +962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1007,7 +972,7 @@
       <c r="C14">
         <v>1339.62</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>1.4884599999999999</v>
       </c>
       <c r="E14">
@@ -1017,7 +982,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1027,7 +992,7 @@
       <c r="C15">
         <v>1337.52</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>1.48613</v>
       </c>
       <c r="E15">
@@ -1037,7 +1002,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1047,7 +1012,7 @@
       <c r="C16">
         <v>1296.1500000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>1.44017</v>
       </c>
       <c r="E16">
@@ -1057,7 +1022,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1067,7 +1032,7 @@
       <c r="C17">
         <v>1257.02</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1.39669</v>
       </c>
       <c r="E17">
@@ -1077,7 +1042,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1087,7 +1052,7 @@
       <c r="C18">
         <v>1218.31</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>1.35368</v>
       </c>
       <c r="E18">
@@ -1097,7 +1062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1107,7 +1072,7 @@
       <c r="C19">
         <v>1199.0999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>1.33233</v>
       </c>
       <c r="E19">
@@ -1117,7 +1082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1127,7 +1092,7 @@
       <c r="C20">
         <v>1189.29</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>1.3214300000000001</v>
       </c>
       <c r="E20">
@@ -1137,7 +1102,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1147,7 +1112,7 @@
       <c r="C21">
         <v>1075.3699999999999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>1.19486</v>
       </c>
       <c r="E21">
@@ -1157,7 +1122,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -1167,7 +1132,7 @@
       <c r="C22">
         <v>1050.6400000000001</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>1.1673800000000001</v>
       </c>
       <c r="E22">
@@ -1177,7 +1142,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -1187,7 +1152,7 @@
       <c r="C23">
         <v>1006.64</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>1.11849</v>
       </c>
       <c r="E23">
@@ -1197,7 +1162,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1207,7 +1172,7 @@
       <c r="C24">
         <v>963.005</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>1.0700099999999999</v>
       </c>
       <c r="E24">
@@ -1217,7 +1182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -1227,7 +1192,7 @@
       <c r="C25">
         <v>1273.99</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>1.06166</v>
       </c>
       <c r="E25">
@@ -1237,7 +1202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1247,7 +1212,7 @@
       <c r="C26">
         <v>634.89300000000003</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>1.05816</v>
       </c>
       <c r="E26">
@@ -1257,7 +1222,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1267,7 +1232,7 @@
       <c r="C27">
         <v>1846.1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>1.0256099999999999</v>
       </c>
       <c r="E27">
@@ -1277,7 +1242,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1287,7 +1252,7 @@
       <c r="C28">
         <v>921.654</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>1.02406</v>
       </c>
       <c r="E28">
@@ -1297,7 +1262,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
@@ -1317,7 +1282,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1337,7 +1302,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1357,7 +1322,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1377,7 +1342,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1397,7 +1362,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1417,7 +1382,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1437,7 +1402,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -1457,7 +1422,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13</v>
       </c>
@@ -1477,7 +1442,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>18</v>
       </c>
@@ -1497,7 +1462,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>15</v>
       </c>
@@ -1517,7 +1482,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
@@ -1537,7 +1502,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1557,7 +1522,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1577,7 +1542,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1597,7 +1562,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11</v>
       </c>
@@ -1617,7 +1582,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13</v>
       </c>
@@ -1637,7 +1602,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1657,7 +1622,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1677,7 +1642,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1697,7 +1662,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
@@ -1717,7 +1682,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1737,7 +1702,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1757,7 +1722,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>17</v>
       </c>
@@ -1777,7 +1742,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9</v>
       </c>
@@ -1797,7 +1762,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1817,7 +1782,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1837,7 +1802,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1857,7 +1822,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -1877,7 +1842,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1897,7 +1862,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1917,7 +1882,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1937,7 +1902,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -1957,7 +1922,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>17</v>
       </c>
@@ -1977,7 +1942,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16</v>
       </c>
@@ -1997,7 +1962,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>18</v>
       </c>
@@ -2017,7 +1982,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2037,7 +2002,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>19</v>
       </c>
@@ -2057,7 +2022,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2077,7 +2042,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -2097,7 +2062,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2117,7 +2082,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2137,7 +2102,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>19</v>
       </c>
@@ -2157,7 +2122,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2177,7 +2142,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2197,7 +2162,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>15</v>
       </c>
@@ -2217,7 +2182,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>16</v>
       </c>
@@ -2235,12 +2200,24 @@
       </c>
       <c r="F75">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <f>COUNTIF(D14:D75, "&gt;1")</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:F75">
     <sortCondition descending="1" ref="D14"/>
   </sortState>
+  <conditionalFormatting sqref="D14:D75">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HW4/TrafAsmtUE_baseline.xlsx
+++ b/HW4/TrafAsmtUE_baseline.xlsx
@@ -882,25 +882,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -908,17 +911,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -926,7 +929,7 @@
         <v>42840.9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -934,7 +937,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -942,7 +945,7 @@
         <v>8.8774600000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -962,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -981,8 +984,12 @@
       <c r="F14">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f>SUMPRODUCT(C14:C75,E14:E75)</f>
+        <v>42840.861541835002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18</v>
       </c>
@@ -2207,9 +2214,13 @@
         <f>COUNTIF(D14:D75, "&gt;1")</f>
         <v>15</v>
       </c>
+      <c r="E77">
+        <f>SUM(E14:E75)</f>
+        <v>47.826825999999997</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A14:F75">
+  <sortState ref="A14:G75">
     <sortCondition descending="1" ref="D14"/>
   </sortState>
   <conditionalFormatting sqref="D14:D75">

--- a/HW4/TrafAsmtUE_baseline.xlsx
+++ b/HW4/TrafAsmtUE_baseline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="15330"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19665" windowHeight="15330"/>
   </bookViews>
   <sheets>
     <sheet name="TrafAsmtUE_Baseline" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -967,26 +967,26 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1339.62</v>
+        <v>1337.52</v>
       </c>
       <c r="D14">
-        <v>1.4884599999999999</v>
+        <v>1.48613</v>
       </c>
       <c r="E14">
-        <v>0.55781000000000003</v>
+        <v>0.73866500000000002</v>
       </c>
       <c r="F14">
-        <v>0.15</v>
-      </c>
-      <c r="G14">
-        <f>SUMPRODUCT(C14:C75,E14:E75)</f>
-        <v>42840.861541835002</v>
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="str">
+        <f>CONCATENATE(A14, "-", B14)</f>
+        <v>1-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,1234 +994,1478 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1337.52</v>
+        <v>1307.19</v>
       </c>
       <c r="D15">
-        <v>1.48613</v>
+        <v>0.72621500000000005</v>
       </c>
       <c r="E15">
-        <v>0.73866500000000002</v>
+        <v>0.77750399999999997</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.75</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G75" si="0">CONCATENATE(A15, "-", B15)</f>
+        <v>1-4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1296.1500000000001</v>
+        <v>1260.94</v>
       </c>
       <c r="D16">
-        <v>1.44017</v>
+        <v>0.42031499999999999</v>
       </c>
       <c r="E16">
-        <v>2.2614200000000002</v>
+        <v>2.8038599999999998</v>
       </c>
       <c r="F16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.8</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>1-19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>1257.02</v>
+        <v>803.03</v>
       </c>
       <c r="D17">
-        <v>1.39669</v>
+        <v>0.267677</v>
       </c>
       <c r="E17">
-        <v>0.42836999999999997</v>
+        <v>1.80017</v>
       </c>
       <c r="F17">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.8</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>1-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1218.31</v>
+        <v>1189.29</v>
       </c>
       <c r="D18">
-        <v>1.35368</v>
+        <v>1.3214300000000001</v>
       </c>
       <c r="E18">
-        <v>1.26915</v>
+        <v>0.46621699999999999</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>1199.0999999999999</v>
+        <v>1688.65</v>
       </c>
       <c r="D19">
-        <v>1.33233</v>
+        <v>0.70360599999999995</v>
       </c>
       <c r="E19">
-        <v>1.1991799999999999</v>
+        <v>0.66971700000000001</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>2-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>720.74099999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.53388199999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.35202600000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.35</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>2-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>420.60700000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.70101199999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.36038399999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.35</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>3-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>558.93399999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.62103799999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.40573700000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>3-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>777.88599999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.57621199999999995</v>
+      </c>
+      <c r="E23">
+        <v>0.35320299999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.35</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>771.74099999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.85748999999999997</v>
+      </c>
+      <c r="E24">
+        <v>0.439753</v>
+      </c>
+      <c r="F24">
+        <v>0.4</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>4-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1521.58</v>
+      </c>
+      <c r="D25">
+        <v>0.84532200000000002</v>
+      </c>
+      <c r="E25">
+        <v>0.872973</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>4-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>1189.29</v>
-      </c>
-      <c r="D20">
-        <v>1.3214300000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.46621699999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>1075.3699999999999</v>
-      </c>
-      <c r="D21">
-        <v>1.19486</v>
-      </c>
-      <c r="E21">
-        <v>1.20926</v>
-      </c>
-      <c r="F21">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>1050.6400000000001</v>
-      </c>
-      <c r="D22">
-        <v>1.1673800000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.48981200000000003</v>
-      </c>
-      <c r="F22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>1006.64</v>
-      </c>
-      <c r="D23">
-        <v>1.11849</v>
-      </c>
-      <c r="E23">
-        <v>0.44683899999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>963.005</v>
-      </c>
-      <c r="D24">
-        <v>1.0700099999999999</v>
-      </c>
-      <c r="E24">
-        <v>0.41255799999999998</v>
-      </c>
-      <c r="F24">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>1273.99</v>
-      </c>
-      <c r="D25">
-        <v>1.06166</v>
-      </c>
-      <c r="E25">
-        <v>0.81477900000000003</v>
-      </c>
-      <c r="F25">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="C26">
+        <v>906.03</v>
+      </c>
+      <c r="D26">
+        <v>0.50334999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.75304899999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.75</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>4-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>80.850999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.13475200000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.35000100000000001</v>
+      </c>
+      <c r="F27">
+        <v>0.35</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>4-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="C28">
+        <v>556.84199999999998</v>
+      </c>
+      <c r="D28">
+        <v>0.92806900000000003</v>
+      </c>
+      <c r="E28">
+        <v>0.40590999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.35</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>5-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>634.89300000000003</v>
-      </c>
-      <c r="D26">
-        <v>1.05816</v>
-      </c>
-      <c r="E26">
-        <v>0.47282999999999997</v>
-      </c>
-      <c r="F26">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>1846.1</v>
-      </c>
-      <c r="D27">
-        <v>1.0256099999999999</v>
-      </c>
-      <c r="E27">
-        <v>1.67825</v>
-      </c>
-      <c r="F27">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>921.654</v>
-      </c>
-      <c r="D28">
-        <v>1.02406</v>
-      </c>
-      <c r="E28">
-        <v>0.51533300000000004</v>
-      </c>
-      <c r="F28">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>16</v>
-      </c>
       <c r="B29">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>1123.6099999999999</v>
+        <v>369.94799999999998</v>
       </c>
       <c r="D29">
-        <v>0.936338</v>
+        <v>0.61658000000000002</v>
       </c>
       <c r="E29">
-        <v>0.35054299999999999</v>
+        <v>0.456181</v>
       </c>
       <c r="F29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.45</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>5-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>556.84199999999998</v>
+        <v>264.94600000000003</v>
       </c>
       <c r="D30">
-        <v>0.92806900000000003</v>
+        <v>0.44157600000000002</v>
       </c>
       <c r="E30">
-        <v>0.40590999999999999</v>
+        <v>0.35064899999999999</v>
       </c>
       <c r="F30">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>5-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>793.88599999999997</v>
+        <v>251.178</v>
       </c>
       <c r="D31">
-        <v>0.88209499999999996</v>
+        <v>0.41863</v>
       </c>
       <c r="E31">
-        <v>0.44710800000000001</v>
+        <v>0.300404</v>
       </c>
       <c r="F31">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>6-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>791.74699999999996</v>
+        <v>136.23400000000001</v>
       </c>
       <c r="D32">
-        <v>0.87971900000000003</v>
+        <v>0.22705700000000001</v>
       </c>
       <c r="E32">
-        <v>0.89270300000000002</v>
+        <v>0.450015</v>
       </c>
       <c r="F32">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.45</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>6-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>122.63800000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.204397</v>
+      </c>
+      <c r="E33">
+        <v>0.35000599999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.35</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>6-8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1257.02</v>
+      </c>
+      <c r="D34">
+        <v>1.39669</v>
+      </c>
+      <c r="E34">
+        <v>0.42836999999999997</v>
+      </c>
+      <c r="F34">
+        <v>0.15</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>7-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1846.1</v>
+      </c>
+      <c r="D35">
+        <v>1.0256099999999999</v>
+      </c>
+      <c r="E35">
+        <v>1.67825</v>
+      </c>
+      <c r="F35">
+        <v>1.3</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>7-19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36">
         <v>4</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>771.74099999999999</v>
-      </c>
-      <c r="D33">
-        <v>0.85748999999999997</v>
-      </c>
-      <c r="E33">
-        <v>0.439753</v>
-      </c>
-      <c r="F33">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>1521.58</v>
-      </c>
-      <c r="D34">
-        <v>0.84532200000000002</v>
-      </c>
-      <c r="E34">
-        <v>0.872973</v>
-      </c>
-      <c r="F34">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>1116.76</v>
-      </c>
-      <c r="D35">
-        <v>0.82722600000000002</v>
-      </c>
-      <c r="E35">
-        <v>0.32403300000000002</v>
-      </c>
-      <c r="F35">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>12</v>
-      </c>
-      <c r="B36">
-        <v>11</v>
-      </c>
       <c r="C36">
-        <v>734.01099999999997</v>
+        <v>1085.9000000000001</v>
       </c>
       <c r="D36">
-        <v>0.81556799999999996</v>
+        <v>0.60327900000000001</v>
       </c>
       <c r="E36">
-        <v>0.85885599999999995</v>
+        <v>0.80964100000000006</v>
       </c>
       <c r="F36">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>7-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>960.34100000000001</v>
+        <v>1339.62</v>
       </c>
       <c r="D37">
-        <v>0.800284</v>
+        <v>1.4884599999999999</v>
       </c>
       <c r="E37">
-        <v>0.37298700000000001</v>
+        <v>0.55781000000000003</v>
       </c>
       <c r="F37">
+        <v>0.15</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>8-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1199.0999999999999</v>
+      </c>
+      <c r="D38">
+        <v>1.33233</v>
+      </c>
+      <c r="E38">
+        <v>1.1991799999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.5</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>8-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>59.251800000000003</v>
+      </c>
+      <c r="D39">
+        <v>9.8752999999999994E-2</v>
+      </c>
+      <c r="E39">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>938.42499999999995</v>
-      </c>
-      <c r="D38">
-        <v>0.78202099999999997</v>
-      </c>
-      <c r="E38">
-        <v>0.31715399999999999</v>
-      </c>
-      <c r="F38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>15</v>
-      </c>
-      <c r="B39">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>938.21400000000006</v>
-      </c>
-      <c r="D39">
-        <v>0.78184500000000001</v>
-      </c>
-      <c r="E39">
-        <v>0.317131</v>
-      </c>
       <c r="F39">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>8-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>1047.6600000000001</v>
+        <v>1218.31</v>
       </c>
       <c r="D40">
-        <v>0.77604200000000001</v>
+        <v>1.35368</v>
       </c>
       <c r="E40">
-        <v>0.316382</v>
+        <v>1.26915</v>
       </c>
       <c r="F40">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>9-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>1307.19</v>
+        <v>634.89300000000003</v>
       </c>
       <c r="D41">
-        <v>0.72621500000000005</v>
+        <v>1.05816</v>
       </c>
       <c r="E41">
-        <v>0.77750399999999997</v>
+        <v>0.47282999999999997</v>
       </c>
       <c r="F41">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.35</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>9-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42">
-        <v>1688.65</v>
+        <v>921.654</v>
       </c>
       <c r="D42">
-        <v>0.70360599999999995</v>
+        <v>1.02406</v>
       </c>
       <c r="E42">
-        <v>0.66971700000000001</v>
+        <v>0.51533300000000004</v>
       </c>
       <c r="F42">
+        <v>0.4</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>9-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>1300.5</v>
+      </c>
+      <c r="D43">
+        <v>0.54187700000000005</v>
+      </c>
+      <c r="E43">
+        <v>0.65411399999999997</v>
+      </c>
+      <c r="F43">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>420.60700000000003</v>
-      </c>
-      <c r="D43">
-        <v>0.70101199999999997</v>
-      </c>
-      <c r="E43">
-        <v>0.36038399999999998</v>
-      </c>
-      <c r="F43">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>9-17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>815.505</v>
+        <v>793.88599999999997</v>
       </c>
       <c r="D44">
-        <v>0.67958700000000005</v>
+        <v>0.88209499999999996</v>
       </c>
       <c r="E44">
-        <v>0.61477599999999999</v>
+        <v>0.44710800000000001</v>
       </c>
       <c r="F44">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>10-9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>804.14200000000005</v>
+        <v>1116.76</v>
       </c>
       <c r="D45">
-        <v>0.67011799999999999</v>
+        <v>0.82722600000000002</v>
       </c>
       <c r="E45">
-        <v>0.61358299999999999</v>
+        <v>0.32403300000000002</v>
       </c>
       <c r="F45">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>10-11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>558.93399999999997</v>
+        <v>1483.28</v>
       </c>
       <c r="D46">
-        <v>0.62103799999999998</v>
+        <v>0.61803200000000003</v>
       </c>
       <c r="E46">
-        <v>0.40573700000000001</v>
+        <v>0.65905599999999998</v>
       </c>
       <c r="F46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>10-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>1483.28</v>
+        <v>879.78499999999997</v>
       </c>
       <c r="D47">
-        <v>0.61803200000000003</v>
+        <v>0.48876900000000001</v>
       </c>
       <c r="E47">
-        <v>0.65905599999999998</v>
+        <v>0.70238599999999995</v>
       </c>
       <c r="F47">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>10-16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>369.94799999999998</v>
+        <v>791.74699999999996</v>
       </c>
       <c r="D48">
-        <v>0.61658000000000002</v>
+        <v>0.87971900000000003</v>
       </c>
       <c r="E48">
-        <v>0.456181</v>
+        <v>0.89270300000000002</v>
       </c>
       <c r="F48">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>11-12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>1047.6600000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.77604200000000001</v>
+      </c>
+      <c r="E49">
+        <v>0.316382</v>
+      </c>
+      <c r="F49">
+        <v>0.3</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>11-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
         <v>13</v>
       </c>
-      <c r="B49">
+      <c r="C50">
+        <v>815.505</v>
+      </c>
+      <c r="D50">
+        <v>0.67958700000000005</v>
+      </c>
+      <c r="E50">
+        <v>0.61477599999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.6</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>11-13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>734.01099999999997</v>
+      </c>
+      <c r="D51">
+        <v>0.81556799999999996</v>
+      </c>
+      <c r="E51">
+        <v>0.85885599999999995</v>
+      </c>
+      <c r="F51">
+        <v>0.8</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>12-11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1108.3599999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.36945499999999998</v>
+      </c>
+      <c r="E52">
+        <v>1.80114</v>
+      </c>
+      <c r="F52">
+        <v>1.8</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>12-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53">
         <v>14</v>
       </c>
-      <c r="C49">
-        <v>727.00800000000004</v>
-      </c>
-      <c r="D49">
-        <v>0.60584000000000005</v>
-      </c>
-      <c r="E49">
-        <v>0.60741699999999998</v>
-      </c>
-      <c r="F49">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1085.9000000000001</v>
-      </c>
-      <c r="D50">
-        <v>0.60327900000000001</v>
-      </c>
-      <c r="E50">
-        <v>0.80964100000000006</v>
-      </c>
-      <c r="F50">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>777.88599999999997</v>
-      </c>
-      <c r="D51">
-        <v>0.57621199999999995</v>
-      </c>
-      <c r="E51">
-        <v>0.35320299999999999</v>
-      </c>
-      <c r="F51">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>17</v>
-      </c>
-      <c r="B52">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>1308.54</v>
-      </c>
-      <c r="D52">
-        <v>0.54522400000000004</v>
-      </c>
-      <c r="E52">
-        <v>0.65426899999999999</v>
-      </c>
-      <c r="F52">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>9</v>
-      </c>
-      <c r="B53">
-        <v>17</v>
-      </c>
       <c r="C53">
-        <v>1300.5</v>
+        <v>138.624</v>
       </c>
       <c r="D53">
-        <v>0.54187700000000005</v>
+        <v>5.7760100000000002E-2</v>
       </c>
       <c r="E53">
-        <v>0.65411399999999997</v>
+        <v>1.6</v>
       </c>
       <c r="F53">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>12-14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>720.74099999999999</v>
+        <v>960.34100000000001</v>
       </c>
       <c r="D54">
-        <v>0.53388199999999997</v>
+        <v>0.800284</v>
       </c>
       <c r="E54">
-        <v>0.35202600000000001</v>
+        <v>0.37298700000000001</v>
       </c>
       <c r="F54">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>13-16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>906.03</v>
+        <v>804.14200000000005</v>
       </c>
       <c r="D55">
-        <v>0.50334999999999996</v>
+        <v>0.67011799999999999</v>
       </c>
       <c r="E55">
-        <v>0.75304899999999997</v>
+        <v>0.61358299999999999</v>
       </c>
       <c r="F55">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>13-11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>879.78499999999997</v>
+        <v>727.00800000000004</v>
       </c>
       <c r="D56">
-        <v>0.48876900000000001</v>
+        <v>0.60584000000000005</v>
       </c>
       <c r="E56">
-        <v>0.70238599999999995</v>
+        <v>0.60741699999999998</v>
       </c>
       <c r="F56">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>13-14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>1050.6400000000001</v>
+      </c>
+      <c r="D57">
+        <v>1.1673800000000001</v>
+      </c>
+      <c r="E57">
+        <v>0.48981200000000003</v>
+      </c>
+      <c r="F57">
+        <v>0.3</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>14-15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
         <v>13</v>
       </c>
-      <c r="C57">
-        <v>402</v>
-      </c>
-      <c r="D57">
-        <v>0.44666699999999998</v>
-      </c>
-      <c r="E57">
-        <v>0.35069499999999998</v>
-      </c>
-      <c r="F57">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
       <c r="C58">
-        <v>264.94600000000003</v>
+        <v>1273.99</v>
       </c>
       <c r="D58">
-        <v>0.44157600000000002</v>
+        <v>1.06166</v>
       </c>
       <c r="E58">
-        <v>0.35064899999999999</v>
+        <v>0.81477900000000003</v>
       </c>
       <c r="F58">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>14-13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>1260.94</v>
+        <v>499.22300000000001</v>
       </c>
       <c r="D59">
-        <v>0.42031499999999999</v>
+        <v>0.208009</v>
       </c>
       <c r="E59">
-        <v>2.8038599999999998</v>
+        <v>1.6000300000000001</v>
       </c>
       <c r="F59">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>14-12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>251.178</v>
+        <v>1006.64</v>
       </c>
       <c r="D60">
-        <v>0.41863</v>
+        <v>1.11849</v>
       </c>
       <c r="E60">
-        <v>0.300404</v>
+        <v>0.44683899999999999</v>
       </c>
       <c r="F60">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>15-18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C61">
-        <v>1108.3599999999999</v>
+        <v>938.21400000000006</v>
       </c>
       <c r="D61">
-        <v>0.36945499999999998</v>
+        <v>0.78184500000000001</v>
       </c>
       <c r="E61">
-        <v>1.80114</v>
+        <v>0.317131</v>
       </c>
       <c r="F61">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>15-14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>869.66499999999996</v>
+        <v>44.211399999999998</v>
       </c>
       <c r="D62">
-        <v>0.36236000000000002</v>
+        <v>2.4561900000000001E-2</v>
       </c>
       <c r="E62">
-        <v>0.60033999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="F62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>15-16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16</v>
       </c>
       <c r="B63">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>1123.6099999999999</v>
+      </c>
+      <c r="D63">
+        <v>0.936338</v>
+      </c>
+      <c r="E63">
+        <v>0.35054299999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.3</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>16-17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>402</v>
+      </c>
+      <c r="D64">
+        <v>0.44666699999999998</v>
+      </c>
+      <c r="E64">
+        <v>0.35069499999999998</v>
+      </c>
+      <c r="F64">
+        <v>0.35</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>16-13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65">
         <v>10</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>615.73699999999997</v>
       </c>
-      <c r="D63">
+      <c r="D65">
         <v>0.34207599999999999</v>
       </c>
-      <c r="E63">
+      <c r="E65">
         <v>0.70028000000000001</v>
       </c>
-      <c r="F63">
+      <c r="F65">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>16-10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.7</v>
+      </c>
+      <c r="F66">
+        <v>0.7</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>16-15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>963.005</v>
+      </c>
+      <c r="D67">
+        <v>1.0700099999999999</v>
+      </c>
+      <c r="E67">
+        <v>0.41255799999999998</v>
+      </c>
+      <c r="F67">
+        <v>0.3</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>17-16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>1308.54</v>
+      </c>
+      <c r="D68">
+        <v>0.54522400000000004</v>
+      </c>
+      <c r="E68">
+        <v>0.65426899999999999</v>
+      </c>
+      <c r="F68">
+        <v>0.65</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>17-9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69">
         <v>18</v>
       </c>
-      <c r="B64">
+      <c r="C69">
+        <v>869.66499999999996</v>
+      </c>
+      <c r="D69">
+        <v>0.36236000000000002</v>
+      </c>
+      <c r="E69">
+        <v>0.60033999999999998</v>
+      </c>
+      <c r="F69">
+        <v>0.6</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="0"/>
+        <v>17-18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>1296.1500000000001</v>
+      </c>
+      <c r="D70">
+        <v>1.44017</v>
+      </c>
+      <c r="E70">
+        <v>2.2614200000000002</v>
+      </c>
+      <c r="F70">
+        <v>0.7</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v>18-19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>938.42499999999995</v>
+      </c>
+      <c r="D71">
+        <v>0.78202099999999997</v>
+      </c>
+      <c r="E71">
+        <v>0.31715399999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.3</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="0"/>
+        <v>18-15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72">
         <v>17</v>
       </c>
-      <c r="C64">
+      <c r="C72">
         <v>717.09699999999998</v>
       </c>
-      <c r="D64">
+      <c r="D72">
         <v>0.29879</v>
       </c>
-      <c r="E64">
+      <c r="E72">
         <v>0.60010699999999995</v>
       </c>
-      <c r="F64">
+      <c r="F72">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="G72" t="str">
+        <f t="shared" si="0"/>
+        <v>18-17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>19</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>1075.3699999999999</v>
+      </c>
+      <c r="D73">
+        <v>1.19486</v>
+      </c>
+      <c r="E73">
+        <v>1.20926</v>
+      </c>
+      <c r="F73">
+        <v>0.7</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="0"/>
+        <v>19-18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>446.827</v>
+      </c>
+      <c r="D74">
+        <v>0.24823700000000001</v>
+      </c>
+      <c r="E74">
+        <v>1.3000799999999999</v>
+      </c>
+      <c r="F74">
+        <v>1.3</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="0"/>
+        <v>19-7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
         <v>1</v>
       </c>
-      <c r="B65">
-        <v>12</v>
-      </c>
-      <c r="C65">
-        <v>803.03</v>
-      </c>
-      <c r="D65">
-        <v>0.267677</v>
-      </c>
-      <c r="E65">
-        <v>1.80017</v>
-      </c>
-      <c r="F65">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>19</v>
-      </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-      <c r="C66">
-        <v>446.827</v>
-      </c>
-      <c r="D66">
-        <v>0.24823700000000001</v>
-      </c>
-      <c r="E66">
-        <v>1.3000799999999999</v>
-      </c>
-      <c r="F66">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>136.23400000000001</v>
-      </c>
-      <c r="D67">
-        <v>0.22705700000000001</v>
-      </c>
-      <c r="E67">
-        <v>0.450015</v>
-      </c>
-      <c r="F67">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>14</v>
-      </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <v>499.22300000000001</v>
-      </c>
-      <c r="D68">
-        <v>0.208009</v>
-      </c>
-      <c r="E68">
-        <v>1.6000300000000001</v>
-      </c>
-      <c r="F68">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>122.63800000000001</v>
-      </c>
-      <c r="D69">
-        <v>0.204397</v>
-      </c>
-      <c r="E69">
-        <v>0.35000599999999998</v>
-      </c>
-      <c r="F69">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>4</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>80.850999999999999</v>
-      </c>
-      <c r="D70">
-        <v>0.13475200000000001</v>
-      </c>
-      <c r="E70">
-        <v>0.35000100000000001</v>
-      </c>
-      <c r="F70">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>19</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
+      <c r="C75">
         <v>328</v>
       </c>
-      <c r="D71">
+      <c r="D75">
         <v>0.109333</v>
       </c>
-      <c r="E71">
+      <c r="E75">
         <v>2.8</v>
       </c>
-      <c r="F71">
+      <c r="F75">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72">
-        <v>59.251800000000003</v>
-      </c>
-      <c r="D72">
-        <v>9.8752999999999994E-2</v>
-      </c>
-      <c r="E72">
-        <v>0.35</v>
-      </c>
-      <c r="F72">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>12</v>
-      </c>
-      <c r="B73">
-        <v>14</v>
-      </c>
-      <c r="C73">
-        <v>138.624</v>
-      </c>
-      <c r="D73">
-        <v>5.7760100000000002E-2</v>
-      </c>
-      <c r="E73">
-        <v>1.6</v>
-      </c>
-      <c r="F73">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>15</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
-      </c>
-      <c r="C74">
-        <v>44.211399999999998</v>
-      </c>
-      <c r="D74">
-        <v>2.4561900000000001E-2</v>
-      </c>
-      <c r="E74">
-        <v>0.7</v>
-      </c>
-      <c r="F74">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>16</v>
-      </c>
-      <c r="B75">
-        <v>15</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0.7</v>
-      </c>
-      <c r="F75">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f t="shared" si="0"/>
+        <v>19-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D77">
         <f>COUNTIF(D14:D75, "&gt;1")</f>
         <v>15</v>
       </c>
       <c r="E77">
         <f>SUM(E14:E75)</f>
-        <v>47.826825999999997</v>
+        <v>47.826826000000011</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:G75">
-    <sortCondition descending="1" ref="D14"/>
+    <sortCondition ref="A14"/>
   </sortState>
   <conditionalFormatting sqref="D14:D75">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
